--- a/各版本对比.xlsx
+++ b/各版本对比.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\魔禁相关\魔法禁书目录X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA19345-1BC2-4A38-82DD-20B1A882FBDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BE353D-4FC0-4B98-9041-4BB0B9601CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7290" yWindow="5490" windowWidth="28365" windowHeight="19950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7290" yWindow="1050" windowWidth="28365" windowHeight="19950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,11 +192,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图片互动*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更新与后续维护*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片文字互动*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,11 +291,7 @@
   <dxfs count="11">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -303,7 +299,6 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
@@ -331,11 +326,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -343,7 +334,6 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
@@ -382,10 +372,15 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -393,34 +388,7 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
@@ -443,7 +411,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -451,6 +423,7 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
@@ -469,11 +442,38 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{8C34442D-D912-4550-A23C-7AE69ED93A16}"/>
+    <tableStyle name="表样式 1" pivot="0" count="0" xr9:uid="{8C34442D-D912-4550-A23C-7AE69ED93A16}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -487,12 +487,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8748BD34-F87B-43DB-BF14-9DC9CE2F02AD}" name="表1" displayName="表1" ref="A2:D19" headerRowCount="0" headerRowDxfId="6" dataDxfId="4" totalsRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8748BD34-F87B-43DB-BF14-9DC9CE2F02AD}" name="表1" displayName="表1" ref="A2:D19" headerRowCount="0" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{22C352D8-DAA5-48F8-AD25-22BE7B13C830}" name=" " totalsRowLabel="汇总" headerRowDxfId="0" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{5630D998-73DF-479D-94D4-8775A146FA55}" name="网译版" headerRowDxfId="1" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{C12A5B93-97C6-4B4D-B694-8089C985C575}" name="台译版" headerRowDxfId="2" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{22AE808B-E4DB-4E8D-94E6-77A0E10B1662}" name="X版" headerRowDxfId="3" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{22C352D8-DAA5-48F8-AD25-22BE7B13C830}" name=" " totalsRowLabel="汇总" headerRowDxfId="7" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{5630D998-73DF-479D-94D4-8775A146FA55}" name="网译版" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C12A5B93-97C6-4B4D-B694-8089C985C575}" name="台译版" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{22AE808B-E4DB-4E8D-94E6-77A0E10B1662}" name="X版" headerRowDxfId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -944,7 +944,7 @@
     </row>
     <row r="10" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="11" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -1081,8 +1081,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>